--- a/rencaiyinjin-core/src/test/resources/test.xlsx
+++ b/rencaiyinjin-core/src/test/resources/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,141 @@
   </si>
   <si>
     <t>saixians</t>
+  </si>
+  <si>
+    <t>徐剑光</t>
+  </si>
+  <si>
+    <t>姜源</t>
+  </si>
+  <si>
+    <t>陈晓俊</t>
+  </si>
+  <si>
+    <t>李丹</t>
+  </si>
+  <si>
+    <t>靳纯刚</t>
+  </si>
+  <si>
+    <t>王永庆</t>
+  </si>
+  <si>
+    <t>崔旭东</t>
+  </si>
+  <si>
+    <t>张仕龙</t>
+  </si>
+  <si>
+    <t>国志宏</t>
+  </si>
+  <si>
+    <t>秦波</t>
+  </si>
+  <si>
+    <t>马放</t>
+  </si>
+  <si>
+    <t>龙潜</t>
+  </si>
+  <si>
+    <t>李庆中</t>
+  </si>
+  <si>
+    <t>王贞凯</t>
+  </si>
+  <si>
+    <t>李丽萍</t>
+  </si>
+  <si>
+    <t>刘有军</t>
+  </si>
+  <si>
+    <t>付德军</t>
+  </si>
+  <si>
+    <t>李春红</t>
+  </si>
+  <si>
+    <t>李德华</t>
+  </si>
+  <si>
+    <t>胡炜</t>
+  </si>
+  <si>
+    <t>客绍英</t>
+  </si>
+  <si>
+    <t>徐海燕</t>
+  </si>
+  <si>
+    <t>丁永红</t>
+  </si>
+  <si>
+    <t>张磊</t>
+  </si>
+  <si>
+    <t>王立学</t>
+  </si>
+  <si>
+    <t>王海涛</t>
+  </si>
+  <si>
+    <t>郭庆玉</t>
+  </si>
+  <si>
+    <t>潘明皓</t>
+  </si>
+  <si>
+    <t>刘东华</t>
+  </si>
+  <si>
+    <t>龚树鹏</t>
+  </si>
+  <si>
+    <t>张贵赞</t>
+  </si>
+  <si>
+    <t>陆忠</t>
+  </si>
+  <si>
+    <t>李国明</t>
+  </si>
+  <si>
+    <t>关淑明</t>
+  </si>
+  <si>
+    <t>朱朴</t>
+  </si>
+  <si>
+    <t>李丽</t>
+  </si>
+  <si>
+    <t>刘霞</t>
+  </si>
+  <si>
+    <t>吕曾望</t>
+  </si>
+  <si>
+    <t>曹永胜</t>
+  </si>
+  <si>
+    <t>赖凤儒</t>
+  </si>
+  <si>
+    <t>姚喆</t>
+  </si>
+  <si>
+    <t>因志刚</t>
+  </si>
+  <si>
+    <t>常亮</t>
+  </si>
+  <si>
+    <t>李超</t>
+  </si>
+  <si>
+    <t>杜凝</t>
   </si>
 </sst>
 </file>
@@ -650,10 +785,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -975,9 +1111,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1102,6 +1240,501 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>15004</v>
+      </c>
+      <c r="B12" s="1">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>1460</v>
+      </c>
+      <c r="B13" s="1">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>1462</v>
+      </c>
+      <c r="B14" s="1">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14991</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>1025</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>1026</v>
+      </c>
+      <c r="B18" s="1">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>1061</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B21" s="1">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>1083</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>1084</v>
+      </c>
+      <c r="B23" s="1">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B24" s="1">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>1042</v>
+      </c>
+      <c r="B25" s="1">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>1332</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>1335</v>
+      </c>
+      <c r="B27" s="1">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>1336</v>
+      </c>
+      <c r="B28" s="1">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>1340</v>
+      </c>
+      <c r="B29" s="1">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>1341</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>1342</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>1345</v>
+      </c>
+      <c r="B32" s="1">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>14065</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>1299</v>
+      </c>
+      <c r="B34" s="1">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>1326</v>
+      </c>
+      <c r="B35" s="1">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>15012</v>
+      </c>
+      <c r="B36" s="1">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>1330</v>
+      </c>
+      <c r="B38" s="1">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>14992</v>
+      </c>
+      <c r="B39" s="1">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>14995</v>
+      </c>
+      <c r="B40" s="1">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>14997</v>
+      </c>
+      <c r="B41" s="1">
+        <v>55</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>14998</v>
+      </c>
+      <c r="B42" s="1">
+        <v>60</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>14999</v>
+      </c>
+      <c r="B43" s="1">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B44" s="1">
+        <v>52</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>15003</v>
+      </c>
+      <c r="B45" s="1">
+        <v>70</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>13492</v>
+      </c>
+      <c r="B46" s="1">
+        <v>37</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>13493</v>
+      </c>
+      <c r="B47" s="1">
+        <v>41</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>13495</v>
+      </c>
+      <c r="B48" s="1">
+        <v>36</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>13530</v>
+      </c>
+      <c r="B49" s="1">
+        <v>41</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>14984</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>14994</v>
+      </c>
+      <c r="B51" s="1">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>14996</v>
+      </c>
+      <c r="B52" s="1">
+        <v>63</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>15006</v>
+      </c>
+      <c r="B53" s="1">
+        <v>66</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>15009</v>
+      </c>
+      <c r="B54" s="1">
+        <v>39</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>15010</v>
+      </c>
+      <c r="B55" s="1">
+        <v>37</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>15011</v>
+      </c>
+      <c r="B56" s="1">
+        <v>48</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
